--- a/テスト対象ヘッドホン一覧.xlsx
+++ b/テスト対象ヘッドホン一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\情報共有_2022下期\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB04B76D-312F-4EBF-82D9-C8ADEEE0FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A4CC69-1D9C-4907-A49E-8EA3F5AF76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5A29BD7C-90D8-42D1-9B97-032C5A0A249F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A29BD7C-90D8-42D1-9B97-032C5A0A249F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Anker Soundcore Liberty 2 Pro</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>https://amzn.asia/d/3AZguvH</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -191,6 +187,10 @@
   </si>
   <si>
     <t>https://amzn.asia/d/f8dGaul</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Anker Soundcore Liberty Air 2 Pro</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1159,7 +1159,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
@@ -1371,13 +1371,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6">
@@ -1389,13 +1389,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6">

--- a/テスト対象ヘッドホン一覧.xlsx
+++ b/テスト対象ヘッドホン一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\MicrophoneLevelLogger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A4CC69-1D9C-4907-A49E-8EA3F5AF76EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9537B039-2431-428C-8A74-D6088639B18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A29BD7C-90D8-42D1-9B97-032C5A0A249F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5A29BD7C-90D8-42D1-9B97-032C5A0A249F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -192,6 +193,38 @@
   <si>
     <t>Anker Soundcore Liberty Air 2 Pro</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エレコム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HS-EP101UNCBK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Engage 50 Ⅱ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>標準価格</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジュンカカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実売価格</t>
+    <rPh sb="0" eb="2">
+      <t>ジツバイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ATH-M50xSTS-USB</t>
   </si>
 </sst>
 </file>
@@ -848,6 +881,194 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1298220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534AC5C7-5391-D7C8-16BD-4659450BFF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6048375" y="3014024"/>
+          <a:ext cx="1076325" cy="1255996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14" descr="Jabra Engage 50 II - USB-C UC Stereo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078B0294-99E4-59AE-265B-EE11703A0978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6496050" y="1457325"/>
+          <a:ext cx="1457325" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>379730</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1371599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1329891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FBBFE18-BE84-A3FB-8445-A60B6BDEDC75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6704330" y="304801"/>
+          <a:ext cx="991869" cy="1310840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1154,7 +1375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FE874-E04E-45BC-80D3-F042133633CC}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1408,4 +1631,104 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF12B6AC-F20B-4C1F-9FF3-EAE9FFDF1A54}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4">
+        <v>27000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>27000</v>
+      </c>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4">
+        <v>29040</v>
+      </c>
+      <c r="E3" s="4">
+        <v>29040</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>11980</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6600</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>